--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb1-Tgfbr3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb1-Tgfbr3.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H2">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I2">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J2">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>35.4678296016328</v>
+        <v>35.789624</v>
       </c>
       <c r="N2">
-        <v>35.4678296016328</v>
+        <v>71.57924800000001</v>
       </c>
       <c r="O2">
-        <v>0.2710471872946258</v>
+        <v>0.258139457682779</v>
       </c>
       <c r="P2">
-        <v>0.2710471872946258</v>
+        <v>0.1993778771086309</v>
       </c>
       <c r="Q2">
-        <v>1651.710921286794</v>
+        <v>1683.125299622884</v>
       </c>
       <c r="R2">
-        <v>1651.710921286794</v>
+        <v>6732.501198491536</v>
       </c>
       <c r="S2">
-        <v>0.03210111374560632</v>
+        <v>0.03022544661384088</v>
       </c>
       <c r="T2">
-        <v>0.03210111374560632</v>
+        <v>0.01637625313747007</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H3">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I3">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J3">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>55.0641994299568</v>
+        <v>60.113367</v>
       </c>
       <c r="N3">
-        <v>55.0641994299568</v>
+        <v>180.340101</v>
       </c>
       <c r="O3">
-        <v>0.4208037690423842</v>
+        <v>0.4335790718803266</v>
       </c>
       <c r="P3">
-        <v>0.4208037690423842</v>
+        <v>0.5023219368682956</v>
       </c>
       <c r="Q3">
-        <v>2564.299552352274</v>
+        <v>2827.029667682885</v>
       </c>
       <c r="R3">
-        <v>2564.299552352274</v>
+        <v>16962.17800609731</v>
       </c>
       <c r="S3">
-        <v>0.0498373356663025</v>
+        <v>0.05076760138739442</v>
       </c>
       <c r="T3">
-        <v>0.0498373356663025</v>
+        <v>0.04125909711726671</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H4">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I4">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J4">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.156963783870009</v>
+        <v>0.2072186666666667</v>
       </c>
       <c r="N4">
-        <v>0.156963783870009</v>
+        <v>0.621656</v>
       </c>
       <c r="O4">
-        <v>0.00119952623554752</v>
+        <v>0.001494603973349423</v>
       </c>
       <c r="P4">
-        <v>0.00119952623554752</v>
+        <v>0.001731569652308208</v>
       </c>
       <c r="Q4">
-        <v>7.309688779283482</v>
+        <v>9.745142346865332</v>
       </c>
       <c r="R4">
-        <v>7.309688779283482</v>
+        <v>58.470854081192</v>
       </c>
       <c r="S4">
-        <v>0.0001420642970417328</v>
+        <v>0.0001750025858535038</v>
       </c>
       <c r="T4">
-        <v>0.0001420642970417328</v>
+        <v>0.000142225523526415</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H5">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I5">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J5">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.9395272275958</v>
+        <v>21.40334366666667</v>
       </c>
       <c r="N5">
-        <v>20.9395272275958</v>
+        <v>64.210031</v>
       </c>
       <c r="O5">
-        <v>0.1600210676003077</v>
+        <v>0.1543756795743782</v>
       </c>
       <c r="P5">
-        <v>0.1600210676003077</v>
+        <v>0.178851553034748</v>
       </c>
       <c r="Q5">
-        <v>975.1384901998615</v>
+        <v>1006.562941870803</v>
       </c>
       <c r="R5">
-        <v>975.1384901998615</v>
+        <v>6039.377651224817</v>
       </c>
       <c r="S5">
-        <v>0.01895188267401986</v>
+        <v>0.01807578703130613</v>
       </c>
       <c r="T5">
-        <v>0.01895188267401986</v>
+        <v>0.01469028735284842</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H6">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I6">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J6">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.2262951485134</v>
+        <v>21.1309775</v>
       </c>
       <c r="N6">
-        <v>19.2262951485134</v>
+        <v>42.261955</v>
       </c>
       <c r="O6">
-        <v>0.1469284498271347</v>
+        <v>0.1524111868891667</v>
       </c>
       <c r="P6">
-        <v>0.1469284498271347</v>
+        <v>0.1177170633360173</v>
       </c>
       <c r="Q6">
-        <v>895.3545235037712</v>
+        <v>993.7540231216713</v>
       </c>
       <c r="R6">
-        <v>895.3545235037712</v>
+        <v>3975.016092486685</v>
       </c>
       <c r="S6">
-        <v>0.01740127587171601</v>
+        <v>0.01784576536273538</v>
       </c>
       <c r="T6">
-        <v>0.01740127587171601</v>
+        <v>0.009668898353952656</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H7">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I7">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J7">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>35.4678296016328</v>
+        <v>35.789624</v>
       </c>
       <c r="N7">
-        <v>35.4678296016328</v>
+        <v>71.57924800000001</v>
       </c>
       <c r="O7">
-        <v>0.2710471872946258</v>
+        <v>0.258139457682779</v>
       </c>
       <c r="P7">
-        <v>0.2710471872946258</v>
+        <v>0.1993778771086309</v>
       </c>
       <c r="Q7">
-        <v>413.3523457963319</v>
+        <v>441.3313616541094</v>
       </c>
       <c r="R7">
-        <v>413.3523457963319</v>
+        <v>2647.988169924656</v>
       </c>
       <c r="S7">
-        <v>0.008033530866941141</v>
+        <v>0.007925397778572266</v>
       </c>
       <c r="T7">
-        <v>0.008033530866941141</v>
+        <v>0.006441012529701193</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H8">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I8">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J8">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.0641994299568</v>
+        <v>60.113367</v>
       </c>
       <c r="N8">
-        <v>55.0641994299568</v>
+        <v>180.340101</v>
       </c>
       <c r="O8">
-        <v>0.4208037690423842</v>
+        <v>0.4335790718803266</v>
       </c>
       <c r="P8">
-        <v>0.4208037690423842</v>
+        <v>0.5023219368682956</v>
       </c>
       <c r="Q8">
-        <v>641.7341083290268</v>
+        <v>741.2738985948331</v>
       </c>
       <c r="R8">
-        <v>641.7341083290268</v>
+        <v>6671.465087353497</v>
       </c>
       <c r="S8">
-        <v>0.01247214590665554</v>
+        <v>0.01331174491479149</v>
       </c>
       <c r="T8">
-        <v>0.01247214590665554</v>
+        <v>0.01622778783801387</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H9">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I9">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J9">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.156963783870009</v>
+        <v>0.2072186666666667</v>
       </c>
       <c r="N9">
-        <v>0.156963783870009</v>
+        <v>0.621656</v>
       </c>
       <c r="O9">
-        <v>0.00119952623554752</v>
+        <v>0.001494603973349423</v>
       </c>
       <c r="P9">
-        <v>0.00119952623554752</v>
+        <v>0.001731569652308208</v>
       </c>
       <c r="Q9">
-        <v>1.829301341426028</v>
+        <v>2.555268429759111</v>
       </c>
       <c r="R9">
-        <v>1.829301341426028</v>
+        <v>22.997415867832</v>
       </c>
       <c r="S9">
-        <v>3.555259560211558E-05</v>
+        <v>4.588733205128689E-05</v>
       </c>
       <c r="T9">
-        <v>3.555259560211558E-05</v>
+        <v>5.593931477407983E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H10">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I10">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J10">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.9395272275958</v>
+        <v>21.40334366666667</v>
       </c>
       <c r="N10">
-        <v>20.9395272275958</v>
+        <v>64.210031</v>
       </c>
       <c r="O10">
-        <v>0.1600210676003077</v>
+        <v>0.1543756795743782</v>
       </c>
       <c r="P10">
-        <v>0.1600210676003077</v>
+        <v>0.178851553034748</v>
       </c>
       <c r="Q10">
-        <v>244.0353073928839</v>
+        <v>263.9303169086342</v>
       </c>
       <c r="R10">
-        <v>244.0353073928839</v>
+        <v>2375.372852177707</v>
       </c>
       <c r="S10">
-        <v>0.004742842745424186</v>
+        <v>0.004739642203277095</v>
       </c>
       <c r="T10">
-        <v>0.004742842745424186</v>
+        <v>0.00577789828419966</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H11">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I11">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J11">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.2262951485134</v>
+        <v>21.1309775</v>
       </c>
       <c r="N11">
-        <v>19.2262951485134</v>
+        <v>42.261955</v>
       </c>
       <c r="O11">
-        <v>0.1469284498271347</v>
+        <v>0.1524111868891667</v>
       </c>
       <c r="P11">
-        <v>0.1469284498271347</v>
+        <v>0.1177170633360173</v>
       </c>
       <c r="Q11">
-        <v>224.0688051643507</v>
+        <v>260.5716973488558</v>
       </c>
       <c r="R11">
-        <v>224.0688051643507</v>
+        <v>1563.430184093135</v>
       </c>
       <c r="S11">
-        <v>0.004354792420830639</v>
+        <v>0.004679328347723367</v>
       </c>
       <c r="T11">
-        <v>0.004354792420830639</v>
+        <v>0.003802914801293637</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H12">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I12">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J12">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>35.4678296016328</v>
+        <v>35.789624</v>
       </c>
       <c r="N12">
-        <v>35.4678296016328</v>
+        <v>71.57924800000001</v>
       </c>
       <c r="O12">
-        <v>0.2710471872946258</v>
+        <v>0.258139457682779</v>
       </c>
       <c r="P12">
-        <v>0.2710471872946258</v>
+        <v>0.1993778771086309</v>
       </c>
       <c r="Q12">
-        <v>4424.075589364516</v>
+        <v>4618.629885181589</v>
       </c>
       <c r="R12">
-        <v>4424.075589364516</v>
+        <v>27711.77931108954</v>
       </c>
       <c r="S12">
-        <v>0.08598220904340163</v>
+        <v>0.08294103300266745</v>
       </c>
       <c r="T12">
-        <v>0.08598220904340163</v>
+        <v>0.06740661449711864</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H13">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I13">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J13">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>55.0641994299568</v>
+        <v>60.113367</v>
       </c>
       <c r="N13">
-        <v>55.0641994299568</v>
+        <v>180.340101</v>
       </c>
       <c r="O13">
-        <v>0.4208037690423842</v>
+        <v>0.4335790718803266</v>
       </c>
       <c r="P13">
-        <v>0.4208037690423842</v>
+        <v>0.5023219368682956</v>
       </c>
       <c r="Q13">
-        <v>6868.426494717246</v>
+        <v>7757.594584539048</v>
       </c>
       <c r="R13">
-        <v>6868.426494717246</v>
+        <v>69818.35126085143</v>
       </c>
       <c r="S13">
-        <v>0.1334883346224304</v>
+        <v>0.1393103419093886</v>
       </c>
       <c r="T13">
-        <v>0.1334883346224304</v>
+        <v>0.1698273732420106</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>23</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H14">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I14">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J14">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.156963783870009</v>
+        <v>0.2072186666666667</v>
       </c>
       <c r="N14">
-        <v>0.156963783870009</v>
+        <v>0.621656</v>
       </c>
       <c r="O14">
-        <v>0.00119952623554752</v>
+        <v>0.001494603973349423</v>
       </c>
       <c r="P14">
-        <v>0.00119952623554752</v>
+        <v>0.001731569652308208</v>
       </c>
       <c r="Q14">
-        <v>19.57885927707361</v>
+        <v>26.74144681246577</v>
       </c>
       <c r="R14">
-        <v>19.57885927707361</v>
+        <v>240.673021312192</v>
       </c>
       <c r="S14">
-        <v>0.0003805164575487055</v>
+        <v>0.0004802210347548983</v>
       </c>
       <c r="T14">
-        <v>0.0003805164575487055</v>
+        <v>0.0005854172474935861</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H15">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I15">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J15">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.9395272275958</v>
+        <v>21.40334366666667</v>
       </c>
       <c r="N15">
-        <v>20.9395272275958</v>
+        <v>64.210031</v>
       </c>
       <c r="O15">
-        <v>0.1600210676003077</v>
+        <v>0.1543756795743782</v>
       </c>
       <c r="P15">
-        <v>0.1600210676003077</v>
+        <v>0.178851553034748</v>
       </c>
       <c r="Q15">
-        <v>2611.889486921847</v>
+        <v>2762.088886479466</v>
       </c>
       <c r="R15">
-        <v>2611.889486921847</v>
+        <v>24858.79997831519</v>
       </c>
       <c r="S15">
-        <v>0.05076224927138642</v>
+        <v>0.04960139937274651</v>
       </c>
       <c r="T15">
-        <v>0.05076224927138642</v>
+        <v>0.0604669778937191</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H16">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I16">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J16">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.2262951485134</v>
+        <v>21.1309775</v>
       </c>
       <c r="N16">
-        <v>19.2262951485134</v>
+        <v>42.261955</v>
       </c>
       <c r="O16">
-        <v>0.1469284498271347</v>
+        <v>0.1524111868891667</v>
       </c>
       <c r="P16">
-        <v>0.1469284498271347</v>
+        <v>0.1177170633360173</v>
       </c>
       <c r="Q16">
-        <v>2398.189683321919</v>
+        <v>2726.940193185593</v>
       </c>
       <c r="R16">
-        <v>2398.189683321919</v>
+        <v>16361.64115911356</v>
       </c>
       <c r="S16">
-        <v>0.04660897909900624</v>
+        <v>0.04897020159267734</v>
       </c>
       <c r="T16">
-        <v>0.04660897909900624</v>
+        <v>0.03979834083447727</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H17">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I17">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J17">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>35.4678296016328</v>
+        <v>35.789624</v>
       </c>
       <c r="N17">
-        <v>35.4678296016328</v>
+        <v>71.57924800000001</v>
       </c>
       <c r="O17">
-        <v>0.2710471872946258</v>
+        <v>0.258139457682779</v>
       </c>
       <c r="P17">
-        <v>0.2710471872946258</v>
+        <v>0.1993778771086309</v>
       </c>
       <c r="Q17">
-        <v>5623.135140351372</v>
+        <v>5677.792443821091</v>
       </c>
       <c r="R17">
-        <v>5623.135140351372</v>
+        <v>34066.75466292654</v>
       </c>
       <c r="S17">
-        <v>0.1092860127162608</v>
+        <v>0.10196140027937</v>
       </c>
       <c r="T17">
-        <v>0.1092860127162608</v>
+        <v>0.08286456719193339</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H18">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I18">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J18">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>55.0641994299568</v>
+        <v>60.113367</v>
       </c>
       <c r="N18">
-        <v>55.0641994299568</v>
+        <v>180.340101</v>
       </c>
       <c r="O18">
-        <v>0.4208037690423842</v>
+        <v>0.4335790718803266</v>
       </c>
       <c r="P18">
-        <v>0.4208037690423842</v>
+        <v>0.5023219368682956</v>
       </c>
       <c r="Q18">
-        <v>8729.979766668659</v>
+        <v>9536.597001556767</v>
       </c>
       <c r="R18">
-        <v>8729.979766668659</v>
+        <v>85829.3730140109</v>
       </c>
       <c r="S18">
-        <v>0.1696677486810736</v>
+        <v>0.1712575431032099</v>
       </c>
       <c r="T18">
-        <v>0.1696677486810736</v>
+        <v>0.208772861328671</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H19">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I19">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J19">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.156963783870009</v>
+        <v>0.2072186666666667</v>
       </c>
       <c r="N19">
-        <v>0.156963783870009</v>
+        <v>0.621656</v>
       </c>
       <c r="O19">
-        <v>0.00119952623554752</v>
+        <v>0.001494603973349423</v>
       </c>
       <c r="P19">
-        <v>0.00119952623554752</v>
+        <v>0.001731569652308208</v>
       </c>
       <c r="Q19">
-        <v>24.88532788037678</v>
+        <v>32.87390165984088</v>
       </c>
       <c r="R19">
-        <v>24.88532788037678</v>
+        <v>295.865114938568</v>
       </c>
       <c r="S19">
-        <v>0.0004836480346466001</v>
+        <v>0.0005903472307324982</v>
       </c>
       <c r="T19">
-        <v>0.0004836480346466001</v>
+        <v>0.0007196674570019027</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H20">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I20">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J20">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.9395272275958</v>
+        <v>21.40334366666667</v>
       </c>
       <c r="N20">
-        <v>20.9395272275958</v>
+        <v>64.210031</v>
       </c>
       <c r="O20">
-        <v>0.1600210676003077</v>
+        <v>0.1543756795743782</v>
       </c>
       <c r="P20">
-        <v>0.1600210676003077</v>
+        <v>0.178851553034748</v>
       </c>
       <c r="Q20">
-        <v>3319.791278415799</v>
+        <v>3395.502085830966</v>
       </c>
       <c r="R20">
-        <v>3319.791278415799</v>
+        <v>30559.51877247869</v>
       </c>
       <c r="S20">
-        <v>0.06452036858669735</v>
+        <v>0.06097618938142295</v>
       </c>
       <c r="T20">
-        <v>0.06452036858669735</v>
+        <v>0.07433350554612735</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H21">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I21">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J21">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>19.2262951485134</v>
+        <v>21.1309775</v>
       </c>
       <c r="N21">
-        <v>19.2262951485134</v>
+        <v>42.261955</v>
       </c>
       <c r="O21">
-        <v>0.1469284498271347</v>
+        <v>0.1524111868891667</v>
       </c>
       <c r="P21">
-        <v>0.1469284498271347</v>
+        <v>0.1177170633360173</v>
       </c>
       <c r="Q21">
-        <v>3048.172303821933</v>
+        <v>3352.292954518144</v>
       </c>
       <c r="R21">
-        <v>3048.172303821933</v>
+        <v>20113.75772710886</v>
       </c>
       <c r="S21">
-        <v>0.05924143539897601</v>
+        <v>0.06020024281819396</v>
       </c>
       <c r="T21">
-        <v>0.05924143539897601</v>
+        <v>0.04892505450406471</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H22">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I22">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J22">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>35.4678296016328</v>
+        <v>35.789624</v>
       </c>
       <c r="N22">
-        <v>35.4678296016328</v>
+        <v>71.57924800000001</v>
       </c>
       <c r="O22">
-        <v>0.2710471872946258</v>
+        <v>0.258139457682779</v>
       </c>
       <c r="P22">
-        <v>0.2710471872946258</v>
+        <v>0.1993778771086309</v>
       </c>
       <c r="Q22">
-        <v>1380.960079954191</v>
+        <v>1496.37437948284</v>
       </c>
       <c r="R22">
-        <v>1380.960079954191</v>
+        <v>8978.246276897042</v>
       </c>
       <c r="S22">
-        <v>0.02683905278667938</v>
+        <v>0.02687178662902378</v>
       </c>
       <c r="T22">
-        <v>0.02683905278667938</v>
+        <v>0.02183884256774544</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H23">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I23">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J23">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>55.0641994299568</v>
+        <v>60.113367</v>
       </c>
       <c r="N23">
-        <v>55.0641994299568</v>
+        <v>180.340101</v>
       </c>
       <c r="O23">
-        <v>0.4208037690423842</v>
+        <v>0.4335790718803266</v>
       </c>
       <c r="P23">
-        <v>0.4208037690423842</v>
+        <v>0.5023219368682956</v>
       </c>
       <c r="Q23">
-        <v>2143.955863707714</v>
+        <v>2513.357006579595</v>
       </c>
       <c r="R23">
-        <v>2143.955863707714</v>
+        <v>22620.21305921636</v>
       </c>
       <c r="S23">
-        <v>0.0416679275770744</v>
+        <v>0.04513468964010909</v>
       </c>
       <c r="T23">
-        <v>0.0416679275770744</v>
+        <v>0.05502180009477483</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H24">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I24">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J24">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.156963783870009</v>
+        <v>0.2072186666666667</v>
       </c>
       <c r="N24">
-        <v>0.156963783870009</v>
+        <v>0.621656</v>
       </c>
       <c r="O24">
-        <v>0.00119952623554752</v>
+        <v>0.001494603973349423</v>
       </c>
       <c r="P24">
-        <v>0.00119952623554752</v>
+        <v>0.001731569652308208</v>
       </c>
       <c r="Q24">
-        <v>6.111474030343859</v>
+        <v>8.663871510653333</v>
       </c>
       <c r="R24">
-        <v>6.111474030343859</v>
+        <v>77.97484359588</v>
       </c>
       <c r="S24">
-        <v>0.0001187769121539415</v>
+        <v>0.0001555851996717671</v>
       </c>
       <c r="T24">
-        <v>0.0001187769121539415</v>
+        <v>0.00018966736721367</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H25">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I25">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J25">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>20.9395272275958</v>
+        <v>21.40334366666667</v>
       </c>
       <c r="N25">
-        <v>20.9395272275958</v>
+        <v>64.210031</v>
       </c>
       <c r="O25">
-        <v>0.1600210676003077</v>
+        <v>0.1543756795743782</v>
       </c>
       <c r="P25">
-        <v>0.1600210676003077</v>
+        <v>0.178851553034748</v>
       </c>
       <c r="Q25">
-        <v>815.292379579168</v>
+        <v>894.8798986562784</v>
       </c>
       <c r="R25">
-        <v>815.292379579168</v>
+        <v>8053.919087906505</v>
       </c>
       <c r="S25">
-        <v>0.01584526267611486</v>
+        <v>0.01607019073903471</v>
       </c>
       <c r="T25">
-        <v>0.01584526267611486</v>
+        <v>0.0195904930194161</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>25</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H26">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I26">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J26">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>19.2262951485134</v>
+        <v>21.1309775</v>
       </c>
       <c r="N26">
-        <v>19.2262951485134</v>
+        <v>42.261955</v>
       </c>
       <c r="O26">
-        <v>0.1469284498271347</v>
+        <v>0.1524111868891667</v>
       </c>
       <c r="P26">
-        <v>0.1469284498271347</v>
+        <v>0.1177170633360173</v>
       </c>
       <c r="Q26">
-        <v>748.5867160107157</v>
+        <v>883.4921916035876</v>
       </c>
       <c r="R26">
-        <v>748.5867160107157</v>
+        <v>5300.953149621525</v>
       </c>
       <c r="S26">
-        <v>0.01454883358184042</v>
+        <v>0.01586569109087881</v>
       </c>
       <c r="T26">
-        <v>0.01454883358184042</v>
+        <v>0.01289413073814553</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>20</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H27">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I27">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J27">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>35.4678296016328</v>
+        <v>35.789624</v>
       </c>
       <c r="N27">
-        <v>35.4678296016328</v>
+        <v>71.57924800000001</v>
       </c>
       <c r="O27">
-        <v>0.2710471872946258</v>
+        <v>0.258139457682779</v>
       </c>
       <c r="P27">
-        <v>0.2710471872946258</v>
+        <v>0.1993778771086309</v>
       </c>
       <c r="Q27">
-        <v>453.0608395680744</v>
+        <v>457.4242853844561</v>
       </c>
       <c r="R27">
-        <v>453.0608395680744</v>
+        <v>1829.697141537824</v>
       </c>
       <c r="S27">
-        <v>0.008805268135736542</v>
+        <v>0.008214393379304541</v>
       </c>
       <c r="T27">
-        <v>0.008805268135736542</v>
+        <v>0.004450587184662122</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>21</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H28">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I28">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J28">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>55.0641994299568</v>
+        <v>60.113367</v>
       </c>
       <c r="N28">
-        <v>55.0641994299568</v>
+        <v>180.340101</v>
       </c>
       <c r="O28">
-        <v>0.4208037690423842</v>
+        <v>0.4335790718803266</v>
       </c>
       <c r="P28">
-        <v>0.4208037690423842</v>
+        <v>0.5023219368682956</v>
       </c>
       <c r="Q28">
-        <v>703.3819859879903</v>
+        <v>768.3040744442731</v>
       </c>
       <c r="R28">
-        <v>703.3819859879903</v>
+        <v>4609.824446665639</v>
       </c>
       <c r="S28">
-        <v>0.01367027658884771</v>
+        <v>0.01379715092543314</v>
       </c>
       <c r="T28">
-        <v>0.01367027658884771</v>
+        <v>0.01121301724755857</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H29">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I29">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J29">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.156963783870009</v>
+        <v>0.2072186666666667</v>
       </c>
       <c r="N29">
-        <v>0.156963783870009</v>
+        <v>0.621656</v>
       </c>
       <c r="O29">
-        <v>0.00119952623554752</v>
+        <v>0.001494603973349423</v>
       </c>
       <c r="P29">
-        <v>0.00119952623554752</v>
+        <v>0.001731569652308208</v>
       </c>
       <c r="Q29">
-        <v>2.005032292662595</v>
+        <v>2.648444993954667</v>
       </c>
       <c r="R29">
-        <v>2.005032292662595</v>
+        <v>15.890669963728</v>
       </c>
       <c r="S29">
-        <v>3.896793855442456E-05</v>
+        <v>4.75605902854688E-05</v>
       </c>
       <c r="T29">
-        <v>3.896793855442456E-05</v>
+        <v>3.865274229855441E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H30">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I30">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J30">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>20.9395272275958</v>
+        <v>21.40334366666667</v>
       </c>
       <c r="N30">
-        <v>20.9395272275958</v>
+        <v>64.210031</v>
       </c>
       <c r="O30">
-        <v>0.1600210676003077</v>
+        <v>0.1543756795743782</v>
       </c>
       <c r="P30">
-        <v>0.1600210676003077</v>
+        <v>0.178851553034748</v>
       </c>
       <c r="Q30">
-        <v>267.4784415186309</v>
+        <v>273.5544017328297</v>
       </c>
       <c r="R30">
-        <v>267.4784415186309</v>
+        <v>1641.326410396978</v>
       </c>
       <c r="S30">
-        <v>0.005198461646664982</v>
+        <v>0.004912470846590801</v>
       </c>
       <c r="T30">
-        <v>0.005198461646664982</v>
+        <v>0.003992390938437318</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H31">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I31">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J31">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>19.2262951485134</v>
+        <v>21.1309775</v>
       </c>
       <c r="N31">
-        <v>19.2262951485134</v>
+        <v>42.261955</v>
       </c>
       <c r="O31">
-        <v>0.1469284498271347</v>
+        <v>0.1524111868891667</v>
       </c>
       <c r="P31">
-        <v>0.1469284498271347</v>
+        <v>0.1177170633360173</v>
       </c>
       <c r="Q31">
-        <v>245.5938668817804</v>
+        <v>270.0733118183225</v>
       </c>
       <c r="R31">
-        <v>245.5938668817804</v>
+        <v>1080.29324727329</v>
       </c>
       <c r="S31">
-        <v>0.004773133454765373</v>
+        <v>0.004849957676957803</v>
       </c>
       <c r="T31">
-        <v>0.004773133454765373</v>
+        <v>0.002627724104083453</v>
       </c>
     </row>
   </sheetData>
